--- a/outputs/panels_genes_comp_2017-07-31_to_2017-08-21.xlsx
+++ b/outputs/panels_genes_comp_2017-07-31_to_2017-08-21.xlsx
@@ -13,11 +13,13 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Updated v0 Panels" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Updated v1 Panels" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Name Changed Panels" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New genes" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Retired genes" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Promoted Genes" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demoted genes" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MOI changed" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New v1 grn genes" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New v1 oth genes" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Retired grn genes" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Promoted v1 Genes" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Promoted v0 Genes" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demoted v1 genes" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MOI changed" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -627,10 +629,10 @@
     <t>Gene_Name</t>
   </si>
   <si>
-    <t>Status_x</t>
-  </si>
-  <si>
-    <t>Status_y</t>
+    <t>Prev_Gene_Status</t>
+  </si>
+  <si>
+    <t>Curr_Gene_Status</t>
   </si>
   <si>
     <t>AICDA</t>
@@ -1129,7 +1131,40 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1643,288 +1678,330 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>204</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>227</v>
-      </c>
-      <c r="D25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>204</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>204</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" t="s">
-        <v>208</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>233</v>
-      </c>
-      <c r="D31" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" t="s">
-        <v>204</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>234</v>
-      </c>
-      <c r="D32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>204</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D34" t="s">
-        <v>203</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1966,7 +2043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3117,7 +3194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3125,17 +3202,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3150,7 +3230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3158,17 +3238,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
